--- a/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
   <si>
     <t>Data source</t>
   </si>
@@ -389,19 +389,13 @@
     <t>Entity</t>
   </si>
   <si>
-    <t>Plan [2021]</t>
-  </si>
-  <si>
-    <t>Actual [2021]</t>
-  </si>
-  <si>
     <t>ANS CR</t>
   </si>
   <si>
     <t>Austro Control</t>
   </si>
   <si>
-    <t>Avinor</t>
+    <t>Avinor Flysikring AS</t>
   </si>
   <si>
     <t>BULATSA</t>
@@ -413,7 +407,7 @@
     <t>DCAC Cyprus</t>
   </si>
   <si>
-    <t>DFS</t>
+    <t>DFS + MUAC-DE</t>
   </si>
   <si>
     <t>DSNA</t>
@@ -446,34 +440,31 @@
     <t>LGS</t>
   </si>
   <si>
-    <t>LPS</t>
-  </si>
-  <si>
-    <t>LVNL</t>
-  </si>
-  <si>
-    <t>Maastricht UAC</t>
+    <t>LPS SR</t>
+  </si>
+  <si>
+    <t>LVNL + MUAC-NL</t>
   </si>
   <si>
     <t>MATS</t>
   </si>
   <si>
-    <t>NAV Portugal</t>
+    <t>NAV Portugal (Continental)</t>
   </si>
   <si>
     <t>NAVIAIR</t>
   </si>
   <si>
-    <t>Oro navigacija</t>
-  </si>
-  <si>
     <t>PANSA</t>
   </si>
   <si>
     <t>ROMATSA</t>
   </si>
   <si>
-    <t>skeyes</t>
+    <t>SE Oro Navigacija</t>
+  </si>
+  <si>
+    <t>Belgium-Lux. + MUAC  BE-LU</t>
   </si>
   <si>
     <t>Skyguide</t>
@@ -1240,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>44944.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1624,7 +1615,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2999,7 +2990,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3284,7 +3275,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3330,7 +3321,7 @@
         <v>123</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C5" s="94" t="s">
         <v>110</v>
@@ -3339,7 +3330,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F5" s="94" t="s">
         <v>113</v>
@@ -3347,9 +3338,11 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="96"/>
+        <v>124</v>
+      </c>
+      <c r="B6" s="96">
+        <v>0.11</v>
+      </c>
       <c r="C6" s="97">
         <v>550194.0</v>
       </c>
@@ -3357,7 +3350,7 @@
         <v>824230.0</v>
       </c>
       <c r="E6" s="99">
-        <f t="shared" ref="E6:E34" si="1">D6/C6</f>
+        <f t="shared" ref="E6:E33" si="1">D6/C6</f>
         <v>1.498071589</v>
       </c>
       <c r="F6" s="96" t="s">
@@ -3366,9 +3359,11 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="96"/>
+        <v>125</v>
+      </c>
+      <c r="B7" s="96">
+        <v>0.17</v>
+      </c>
       <c r="C7" s="97">
         <v>1049628.0</v>
       </c>
@@ -3383,9 +3378,11 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="96"/>
+        <v>126</v>
+      </c>
+      <c r="B8" s="96">
+        <v>0.08</v>
+      </c>
       <c r="C8" s="97">
         <v>529671.0</v>
       </c>
@@ -3400,9 +3397,11 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="96"/>
+        <v>127</v>
+      </c>
+      <c r="B9" s="96">
+        <v>0.08</v>
+      </c>
       <c r="C9" s="97">
         <v>822087.0</v>
       </c>
@@ -3417,9 +3416,11 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="96"/>
+        <v>128</v>
+      </c>
+      <c r="B10" s="96">
+        <v>0.16</v>
+      </c>
       <c r="C10" s="97">
         <v>712861.0</v>
       </c>
@@ -3434,9 +3435,11 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="96"/>
+        <v>129</v>
+      </c>
+      <c r="B11" s="96">
+        <v>0.16</v>
+      </c>
       <c r="C11" s="97">
         <v>343957.0</v>
       </c>
@@ -3451,26 +3454,30 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="96"/>
+        <v>130</v>
+      </c>
+      <c r="B12" s="96">
+        <v>0.27</v>
+      </c>
       <c r="C12" s="97">
-        <v>2502186.0</v>
+        <v>2516506.0</v>
       </c>
       <c r="D12" s="97">
-        <v>5649663.0</v>
+        <v>5728737.0</v>
       </c>
       <c r="E12" s="99">
         <f t="shared" si="1"/>
-        <v>2.2578909</v>
+        <v>2.27646467</v>
       </c>
       <c r="F12" s="96"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="96"/>
+        <v>131</v>
+      </c>
+      <c r="B13" s="96">
+        <v>0.25</v>
+      </c>
       <c r="C13" s="97">
         <v>2919041.0</v>
       </c>
@@ -3485,9 +3492,11 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="96"/>
+        <v>132</v>
+      </c>
+      <c r="B14" s="96">
+        <v>0.03</v>
+      </c>
       <c r="C14" s="97">
         <v>141577.0</v>
       </c>
@@ -3502,9 +3511,11 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="96"/>
+        <v>133</v>
+      </c>
+      <c r="B15" s="96">
+        <v>0.2</v>
+      </c>
       <c r="C15" s="97">
         <v>1982636.0</v>
       </c>
@@ -3519,9 +3530,11 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="96"/>
+        <v>134</v>
+      </c>
+      <c r="B16" s="96">
+        <v>0.11</v>
+      </c>
       <c r="C16" s="97">
         <v>1664146.0</v>
       </c>
@@ -3536,9 +3549,11 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="96"/>
+        <v>135</v>
+      </c>
+      <c r="B17" s="96">
+        <v>0.05</v>
+      </c>
       <c r="C17" s="97">
         <v>192580.0</v>
       </c>
@@ -3553,9 +3568,11 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="96"/>
+        <v>136</v>
+      </c>
+      <c r="B18" s="96">
+        <v>0.14</v>
+      </c>
       <c r="C18" s="97">
         <v>895730.0</v>
       </c>
@@ -3570,9 +3587,11 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="96"/>
+        <v>137</v>
+      </c>
+      <c r="B19" s="96">
+        <v>0.11</v>
+      </c>
       <c r="C19" s="97">
         <v>892471.0</v>
       </c>
@@ -3587,9 +3606,11 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="96"/>
+        <v>138</v>
+      </c>
+      <c r="B20" s="96">
+        <v>0.03</v>
+      </c>
       <c r="C20" s="97">
         <v>582360.0</v>
       </c>
@@ -3604,9 +3625,11 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="96"/>
+        <v>139</v>
+      </c>
+      <c r="B21" s="96">
+        <v>0.07</v>
+      </c>
       <c r="C21" s="97">
         <v>541132.0</v>
       </c>
@@ -3621,9 +3644,11 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="96"/>
+        <v>140</v>
+      </c>
+      <c r="B22" s="96">
+        <v>0.03</v>
+      </c>
       <c r="C22" s="97">
         <v>187979.0</v>
       </c>
@@ -3638,9 +3663,11 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="96"/>
+        <v>141</v>
+      </c>
+      <c r="B23" s="96">
+        <v>0.07</v>
+      </c>
       <c r="C23" s="97">
         <v>470158.0</v>
       </c>
@@ -3655,96 +3682,108 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="96"/>
+        <v>142</v>
+      </c>
+      <c r="B24" s="96">
+        <v>0.14</v>
+      </c>
       <c r="C24" s="97">
-        <v>515029.0</v>
+        <v>1052844.0</v>
       </c>
       <c r="D24" s="97">
-        <v>20097.0</v>
+        <v>49345.0</v>
       </c>
       <c r="E24" s="99">
         <f t="shared" si="1"/>
-        <v>0.03902110367</v>
+        <v>0.04686829198</v>
       </c>
       <c r="F24" s="96"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="96"/>
+        <v>143</v>
+      </c>
+      <c r="B25" s="96">
+        <v>0.01</v>
+      </c>
       <c r="C25" s="97">
-        <v>1549498.0</v>
+        <v>104143.0</v>
       </c>
       <c r="D25" s="97">
-        <v>153860.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="99">
         <f t="shared" si="1"/>
-        <v>0.09929667544</v>
+        <v>0</v>
       </c>
       <c r="F25" s="96"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="96"/>
+        <v>144</v>
+      </c>
+      <c r="B26" s="96">
+        <v>0.13</v>
+      </c>
       <c r="C26" s="97">
-        <v>104143.0</v>
+        <v>606631.0</v>
       </c>
       <c r="D26" s="97">
-        <v>0.0</v>
+        <v>384482.0</v>
       </c>
       <c r="E26" s="99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6337988003</v>
       </c>
       <c r="F26" s="96"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="96"/>
+        <v>145</v>
+      </c>
+      <c r="B27" s="96">
+        <v>0.06</v>
+      </c>
       <c r="C27" s="97">
-        <v>606631.0</v>
+        <v>516284.0</v>
       </c>
       <c r="D27" s="97">
-        <v>384482.0</v>
+        <v>762.0</v>
       </c>
       <c r="E27" s="99">
         <f t="shared" si="1"/>
-        <v>0.6337988003</v>
+        <v>0.001475931851</v>
       </c>
       <c r="F27" s="96"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="96"/>
+        <v>146</v>
+      </c>
+      <c r="B28" s="96">
+        <v>0.12</v>
+      </c>
       <c r="C28" s="97">
-        <v>516284.0</v>
+        <v>613073.0</v>
       </c>
       <c r="D28" s="97">
-        <v>762.0</v>
+        <v>809805.0</v>
       </c>
       <c r="E28" s="99">
         <f t="shared" si="1"/>
-        <v>0.001475931851</v>
+        <v>1.320894902</v>
       </c>
       <c r="F28" s="96"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="96"/>
+        <v>147</v>
+      </c>
+      <c r="B29" s="96">
+        <v>0.04</v>
+      </c>
       <c r="C29" s="97">
-        <v>163350.0</v>
+        <v>656325.0</v>
       </c>
       <c r="D29" s="97">
         <v>0.0</v>
@@ -3757,87 +3796,86 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="96"/>
+        <v>148</v>
+      </c>
+      <c r="B30" s="96">
+        <v>0.02</v>
+      </c>
       <c r="C30" s="97">
-        <v>613073.0</v>
+        <v>163350.0</v>
       </c>
       <c r="D30" s="97">
-        <v>809805.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" s="99">
         <f t="shared" si="1"/>
-        <v>1.320894902</v>
+        <v>0</v>
       </c>
       <c r="F30" s="96"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="96"/>
+        <v>149</v>
+      </c>
+      <c r="B31" s="96">
+        <v>0.17</v>
+      </c>
       <c r="C31" s="97">
-        <v>656325.0</v>
+        <v>1037834.0</v>
       </c>
       <c r="D31" s="97">
-        <v>0.0</v>
+        <v>135538.0</v>
       </c>
       <c r="E31" s="99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1305969934</v>
       </c>
       <c r="F31" s="96"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="96"/>
+        <v>150</v>
+      </c>
+      <c r="B32" s="96">
+        <v>0.19</v>
+      </c>
       <c r="C32" s="97">
-        <v>515973.0</v>
+        <v>1152707.0</v>
       </c>
       <c r="D32" s="97">
-        <v>90000.0</v>
+        <v>392134.0</v>
       </c>
       <c r="E32" s="99">
         <f t="shared" si="1"/>
-        <v>0.1744277317</v>
+        <v>0.3401853203</v>
       </c>
       <c r="F32" s="96"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="96"/>
+        <v>151</v>
+      </c>
+      <c r="B33" s="96">
+        <v>0.09</v>
+      </c>
       <c r="C33" s="97">
-        <v>1152707.0</v>
+        <v>360890.0</v>
       </c>
       <c r="D33" s="97">
-        <v>392134.0</v>
+        <v>156.0</v>
       </c>
       <c r="E33" s="99">
         <f t="shared" si="1"/>
-        <v>0.3401853203</v>
+        <v>0.000432264679</v>
       </c>
       <c r="F33" s="96"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="95" t="s">
-        <v>154</v>
-      </c>
+      <c r="A34" s="95"/>
       <c r="B34" s="96"/>
-      <c r="C34" s="97">
-        <v>360890.0</v>
-      </c>
-      <c r="D34" s="97">
-        <v>156.0</v>
-      </c>
-      <c r="E34" s="99">
-        <f t="shared" si="1"/>
-        <v>0.000432264679</v>
-      </c>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="96"/>
     </row>
   </sheetData>
@@ -3863,16 +3901,16 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="100" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -3880,11 +3918,11 @@
         <v>44351.0</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="103"/>
       <c r="D2" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">

--- a/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45034.0</v>
+        <v>45072.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1509,20 +1509,20 @@
       </c>
       <c r="C13" s="32">
         <f t="shared" si="1"/>
-        <v>1.735833783</v>
+        <v>1.741019998</v>
       </c>
       <c r="D13" s="39">
         <v>8302587.0</v>
       </c>
       <c r="E13" s="40">
-        <v>1.4411911E7</v>
+        <v>1.445497E7</v>
       </c>
       <c r="F13" s="43">
         <v>0.5</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="2"/>
-        <v>1.235833783</v>
+        <v>1.241019998</v>
       </c>
       <c r="H13" s="37">
         <v>0.0404</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45034</v>
+        <v>45072</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2439,17 +2439,17 @@
       </c>
       <c r="B42" s="64">
         <f t="shared" si="1"/>
-        <v>0.1678644785</v>
+        <v>0.1659310177</v>
       </c>
       <c r="C42" s="66">
-        <v>478094.0</v>
+        <v>478036.0</v>
       </c>
       <c r="D42" s="66">
-        <v>80255.0</v>
+        <v>79321.0</v>
       </c>
       <c r="E42" s="76">
         <f>D42/C42</f>
-        <v>0.1678644785</v>
+        <v>0.1659310177</v>
       </c>
       <c r="F42" s="77">
         <v>1.0</v>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="B43" s="69">
         <f t="shared" si="1"/>
-        <v>0.1864517896</v>
+        <v>0.1812200377</v>
       </c>
       <c r="C43" s="71">
         <v>463707.0</v>
       </c>
       <c r="D43" s="71">
-        <v>86459.0</v>
+        <v>84033.0</v>
       </c>
       <c r="E43" s="69">
         <f t="shared" ref="E43:E53" si="4">sum(D$42:D43)/sum(C$42:C43)</f>
-        <v>0.1770161637</v>
+        <v>0.1734592134</v>
       </c>
       <c r="F43" s="78">
         <v>1.0</v>
@@ -2483,17 +2483,17 @@
       </c>
       <c r="B44" s="69">
         <f t="shared" si="1"/>
-        <v>0.3268656819</v>
+        <v>0.3255284979</v>
       </c>
       <c r="C44" s="71">
         <v>580324.0</v>
       </c>
       <c r="D44" s="71">
-        <v>189688.0</v>
+        <v>188912.0</v>
       </c>
       <c r="E44" s="69">
         <f t="shared" si="4"/>
-        <v>0.2341476554</v>
+        <v>0.2314392205</v>
       </c>
       <c r="F44" s="78">
         <v>1.0</v>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="B45" s="69">
         <f t="shared" si="1"/>
-        <v>1.400135631</v>
+        <v>1.396478328</v>
       </c>
       <c r="C45" s="71">
         <v>675361.0</v>
       </c>
       <c r="D45" s="71">
-        <v>945597.0</v>
+        <v>943127.0</v>
       </c>
       <c r="E45" s="69">
         <f t="shared" si="4"/>
-        <v>0.5924947872</v>
+        <v>0.589504184</v>
       </c>
       <c r="F45" s="78">
         <v>1.0</v>
@@ -2527,17 +2527,17 @@
       </c>
       <c r="B46" s="69">
         <f t="shared" si="1"/>
-        <v>2.080701982</v>
+        <v>2.074151273</v>
       </c>
       <c r="C46" s="71">
         <v>769535.0</v>
       </c>
       <c r="D46" s="71">
-        <v>1601173.0</v>
+        <v>1596132.0</v>
       </c>
       <c r="E46" s="69">
         <f t="shared" si="4"/>
-        <v>0.9784804354</v>
+        <v>0.9745740004</v>
       </c>
       <c r="F46" s="78">
         <v>1.0</v>
@@ -2549,17 +2549,17 @@
       </c>
       <c r="B47" s="69">
         <f t="shared" si="1"/>
-        <v>3.594616992</v>
+        <v>3.602802494</v>
       </c>
       <c r="C47" s="71">
         <v>807281.0</v>
       </c>
       <c r="D47" s="71">
-        <v>2901866.0</v>
+        <v>2908474.0</v>
       </c>
       <c r="E47" s="69">
         <f t="shared" si="4"/>
-        <v>1.538042796</v>
+        <v>1.53673133</v>
       </c>
       <c r="F47" s="78">
         <v>1.0</v>
@@ -2571,17 +2571,17 @@
       </c>
       <c r="B48" s="69">
         <f t="shared" si="1"/>
-        <v>3.260962316</v>
+        <v>3.280105647</v>
       </c>
       <c r="C48" s="71">
         <v>856434.0</v>
       </c>
       <c r="D48" s="71">
-        <v>2792799.0</v>
+        <v>2809194.0</v>
       </c>
       <c r="E48" s="69">
         <f t="shared" si="4"/>
-        <v>1.856689088</v>
+        <v>1.859164684</v>
       </c>
       <c r="F48" s="78">
         <v>1.0</v>
@@ -2593,17 +2593,17 @@
       </c>
       <c r="B49" s="69">
         <f t="shared" si="1"/>
-        <v>2.523595948</v>
+        <v>2.533867842</v>
       </c>
       <c r="C49" s="71">
         <v>853494.0</v>
       </c>
       <c r="D49" s="71">
-        <v>2153874.0</v>
+        <v>2162641.0</v>
       </c>
       <c r="E49" s="69">
         <f t="shared" si="4"/>
-        <v>1.96047777</v>
+        <v>1.964167791</v>
       </c>
       <c r="F49" s="78">
         <v>1.0</v>
@@ -2615,17 +2615,17 @@
       </c>
       <c r="B50" s="69">
         <f t="shared" si="1"/>
-        <v>2.456896605</v>
+        <v>2.491699815</v>
       </c>
       <c r="C50" s="71">
         <v>811247.0</v>
       </c>
       <c r="D50" s="71">
-        <v>1993150.0</v>
+        <v>2021384.0</v>
       </c>
       <c r="E50" s="69">
         <f t="shared" si="4"/>
-        <v>2.024447234</v>
+        <v>2.032147185</v>
       </c>
       <c r="F50" s="78">
         <v>1.0</v>
@@ -2637,17 +2637,17 @@
       </c>
       <c r="B51" s="69">
         <f t="shared" si="1"/>
-        <v>1.219841009</v>
+        <v>1.219762186</v>
       </c>
       <c r="C51" s="71">
         <v>773882.0</v>
       </c>
       <c r="D51" s="71">
-        <v>944013.0</v>
+        <v>943952.0</v>
       </c>
       <c r="E51" s="69">
         <f t="shared" si="4"/>
-        <v>1.936367074</v>
+        <v>1.943214753</v>
       </c>
       <c r="F51" s="78">
         <v>1.0</v>
@@ -2659,17 +2659,17 @@
       </c>
       <c r="B52" s="69">
         <f t="shared" si="1"/>
-        <v>0.488293392</v>
+        <v>0.4834897243</v>
       </c>
       <c r="C52" s="71">
         <v>616404.0</v>
       </c>
       <c r="D52" s="71">
-        <v>300986.0</v>
+        <v>298025.0</v>
       </c>
       <c r="E52" s="69">
         <f t="shared" si="4"/>
-        <v>1.82023047</v>
+        <v>1.82614282</v>
       </c>
       <c r="F52" s="78">
         <v>1.0</v>
@@ -2681,17 +2681,17 @@
       </c>
       <c r="B53" s="69">
         <f t="shared" si="1"/>
-        <v>0.684113007</v>
+        <v>0.6804786004</v>
       </c>
       <c r="C53" s="74">
         <v>616882.0</v>
       </c>
       <c r="D53" s="74">
-        <v>422017.0</v>
+        <v>419775.0</v>
       </c>
       <c r="E53" s="69">
         <f t="shared" si="4"/>
-        <v>1.735817562</v>
+        <v>1.741019998</v>
       </c>
       <c r="F53" s="78">
         <v>1.0</v>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45034</v>
+        <v>45072</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3062,15 +3062,15 @@
         <v>8302587.0</v>
       </c>
       <c r="D6" s="97">
-        <v>1.4411911E7</v>
+        <v>1.445497E7</v>
       </c>
       <c r="E6" s="96">
         <f t="shared" ref="E6:E15" si="1">D6/C6</f>
-        <v>1.735833783</v>
+        <v>1.741019998</v>
       </c>
       <c r="F6" s="96">
         <f>E6-B6</f>
-        <v>1.235833783</v>
+        <v>1.241019998</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3082,11 +3082,11 @@
         <v>662296.0</v>
       </c>
       <c r="D7" s="97">
-        <v>809805.0</v>
+        <v>799668.0</v>
       </c>
       <c r="E7" s="96">
         <f t="shared" si="1"/>
-        <v>1.222723676</v>
+        <v>1.207417831</v>
       </c>
       <c r="F7" s="96"/>
     </row>
@@ -3099,11 +3099,11 @@
         <v>2424903.0</v>
       </c>
       <c r="D8" s="97">
-        <v>501136.0</v>
+        <v>392007.0</v>
       </c>
       <c r="E8" s="96">
         <f t="shared" si="1"/>
-        <v>0.2066622871</v>
+        <v>0.1616588375</v>
       </c>
       <c r="F8" s="96"/>
     </row>
@@ -3150,11 +3150,11 @@
         <v>1943729.0</v>
       </c>
       <c r="D11" s="97">
-        <v>2144971.0</v>
+        <v>1767150.0</v>
       </c>
       <c r="E11" s="96">
         <f t="shared" si="1"/>
-        <v>1.10353398</v>
+        <v>0.9091545169</v>
       </c>
       <c r="F11" s="96"/>
     </row>
@@ -3167,11 +3167,11 @@
         <v>5232079.0</v>
       </c>
       <c r="D12" s="97">
-        <v>9869073.0</v>
+        <v>1.0466578E7</v>
       </c>
       <c r="E12" s="96">
         <f t="shared" si="1"/>
-        <v>1.88626223</v>
+        <v>2.000462531</v>
       </c>
       <c r="F12" s="96"/>
     </row>
@@ -3201,11 +3201,11 @@
         <v>2047921.0</v>
       </c>
       <c r="D14" s="97">
-        <v>1060018.0</v>
+        <v>1002659.0</v>
       </c>
       <c r="E14" s="96">
         <f t="shared" si="1"/>
-        <v>0.5176068803</v>
+        <v>0.4895984757</v>
       </c>
       <c r="F14" s="96"/>
     </row>
@@ -3218,11 +3218,11 @@
         <v>2158259.0</v>
       </c>
       <c r="D15" s="97">
-        <v>602743.0</v>
+        <v>530932.0</v>
       </c>
       <c r="E15" s="96">
         <f t="shared" si="1"/>
-        <v>0.2792727842</v>
+        <v>0.2460001325</v>
       </c>
       <c r="F15" s="96"/>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45034</v>
+        <v>45072</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3347,11 +3347,11 @@
         <v>550194.0</v>
       </c>
       <c r="D6" s="97">
-        <v>824230.0</v>
+        <v>798202.0</v>
       </c>
       <c r="E6" s="99">
         <f t="shared" ref="E6:E33" si="1">D6/C6</f>
-        <v>1.498071589</v>
+        <v>1.450764639</v>
       </c>
       <c r="F6" s="96" t="s">
         <v>4</v>
@@ -3368,11 +3368,11 @@
         <v>1049628.0</v>
       </c>
       <c r="D7" s="97">
-        <v>104902.0</v>
+        <v>78166.0</v>
       </c>
       <c r="E7" s="99">
         <f t="shared" si="1"/>
-        <v>0.09994207472</v>
+        <v>0.07447019325</v>
       </c>
       <c r="F7" s="96"/>
     </row>
@@ -3463,11 +3463,11 @@
         <v>2516506.0</v>
       </c>
       <c r="D12" s="97">
-        <v>5728737.0</v>
+        <v>5705935.0</v>
       </c>
       <c r="E12" s="99">
         <f t="shared" si="1"/>
-        <v>2.27646467</v>
+        <v>2.267403694</v>
       </c>
       <c r="F12" s="96"/>
     </row>
@@ -3482,11 +3482,11 @@
         <v>2919041.0</v>
       </c>
       <c r="D13" s="97">
-        <v>3563319.0</v>
+        <v>4342492.0</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>1.220715639</v>
+        <v>1.487643373</v>
       </c>
       <c r="F13" s="96"/>
     </row>
@@ -3520,11 +3520,11 @@
         <v>1982636.0</v>
       </c>
       <c r="D15" s="97">
-        <v>675536.0</v>
+        <v>598463.0</v>
       </c>
       <c r="E15" s="99">
         <f t="shared" si="1"/>
-        <v>0.3407261847</v>
+        <v>0.3018521806</v>
       </c>
       <c r="F15" s="96"/>
     </row>
@@ -3539,11 +3539,11 @@
         <v>1664146.0</v>
       </c>
       <c r="D16" s="97">
-        <v>362824.0</v>
+        <v>253695.0</v>
       </c>
       <c r="E16" s="99">
         <f t="shared" si="1"/>
-        <v>0.2180241397</v>
+        <v>0.1524475617</v>
       </c>
       <c r="F16" s="96"/>
     </row>
@@ -3596,11 +3596,11 @@
         <v>892471.0</v>
       </c>
       <c r="D19" s="97">
-        <v>794061.0</v>
+        <v>480956.0</v>
       </c>
       <c r="E19" s="99">
         <f t="shared" si="1"/>
-        <v>0.8897331118</v>
+        <v>0.5389037851</v>
       </c>
       <c r="F19" s="96"/>
     </row>
@@ -3672,11 +3672,11 @@
         <v>470158.0</v>
       </c>
       <c r="D23" s="97">
-        <v>13907.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E23" s="99">
         <f t="shared" si="1"/>
-        <v>0.02957941798</v>
+        <v>0.004158176613</v>
       </c>
       <c r="F23" s="96"/>
     </row>
@@ -3691,11 +3691,11 @@
         <v>1052844.0</v>
       </c>
       <c r="D24" s="97">
-        <v>49345.0</v>
+        <v>45713.0</v>
       </c>
       <c r="E24" s="99">
         <f t="shared" si="1"/>
-        <v>0.04686829198</v>
+        <v>0.04341858813</v>
       </c>
       <c r="F24" s="96"/>
     </row>
@@ -3729,11 +3729,11 @@
         <v>606631.0</v>
       </c>
       <c r="D26" s="97">
-        <v>384482.0</v>
+        <v>404196.0</v>
       </c>
       <c r="E26" s="99">
         <f t="shared" si="1"/>
-        <v>0.6337988003</v>
+        <v>0.6662963152</v>
       </c>
       <c r="F26" s="96"/>
     </row>
@@ -3767,11 +3767,11 @@
         <v>613073.0</v>
       </c>
       <c r="D28" s="97">
-        <v>809805.0</v>
+        <v>799668.0</v>
       </c>
       <c r="E28" s="99">
         <f t="shared" si="1"/>
-        <v>1.320894902</v>
+        <v>1.304360166</v>
       </c>
       <c r="F28" s="96"/>
     </row>
@@ -3824,11 +3824,11 @@
         <v>1037834.0</v>
       </c>
       <c r="D31" s="97">
-        <v>135538.0</v>
+        <v>130795.0</v>
       </c>
       <c r="E31" s="99">
         <f t="shared" si="1"/>
-        <v>0.1305969934</v>
+        <v>0.1260268983</v>
       </c>
       <c r="F31" s="96"/>
     </row>
@@ -3843,11 +3843,11 @@
         <v>1152707.0</v>
       </c>
       <c r="D32" s="97">
-        <v>392134.0</v>
+        <v>241643.0</v>
       </c>
       <c r="E32" s="99">
         <f t="shared" si="1"/>
-        <v>0.3401853203</v>
+        <v>0.2096308949</v>
       </c>
       <c r="F32" s="96"/>
     </row>

--- a/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="161">
   <si>
     <t>Data source</t>
   </si>
@@ -486,6 +486,18 @@
   </si>
   <si>
     <t>UK removed from SES area</t>
+  </si>
+  <si>
+    <t>ENAIRE,DSNA</t>
+  </si>
+  <si>
+    <t>55 min.  of regulation 'T21316E'  (16/09/2022) reallocated from ENAIRE to DSNA</t>
+  </si>
+  <si>
+    <t>274 min.  of regulation ‘PAU23M’ (23/12/2022) reallocated from ENAIRE to DSNA</t>
+  </si>
+  <si>
+    <t>17 min. of regulation ‘LPAU23’ (23/12/2022) reallocated from ENAIRE to DSNA</t>
   </si>
 </sst>
 </file>
@@ -832,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1141,17 +1153,14 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45072.0</v>
+        <v>45110.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1615,7 +1624,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45072</v>
+        <v>45110</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2990,7 +2999,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45072</v>
+        <v>45110</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3167,11 +3176,11 @@
         <v>5232079.0</v>
       </c>
       <c r="D12" s="97">
-        <v>1.0466578E7</v>
+        <v>1.0466924E7</v>
       </c>
       <c r="E12" s="96">
         <f t="shared" si="1"/>
-        <v>2.000462531</v>
+        <v>2.000528662</v>
       </c>
       <c r="F12" s="96"/>
     </row>
@@ -3201,11 +3210,11 @@
         <v>2047921.0</v>
       </c>
       <c r="D14" s="97">
-        <v>1002659.0</v>
+        <v>1002313.0</v>
       </c>
       <c r="E14" s="96">
         <f t="shared" si="1"/>
-        <v>0.4895984757</v>
+        <v>0.4894295239</v>
       </c>
       <c r="F14" s="96"/>
     </row>
@@ -3275,7 +3284,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45072</v>
+        <v>45110</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3482,11 +3491,11 @@
         <v>2919041.0</v>
       </c>
       <c r="D13" s="97">
-        <v>4342492.0</v>
+        <v>4342838.0</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>1.487643373</v>
+        <v>1.487761905</v>
       </c>
       <c r="F13" s="96"/>
     </row>
@@ -3520,11 +3529,11 @@
         <v>1982636.0</v>
       </c>
       <c r="D15" s="97">
-        <v>598463.0</v>
+        <v>598117.0</v>
       </c>
       <c r="E15" s="99">
         <f t="shared" si="1"/>
-        <v>0.3018521806</v>
+        <v>0.3016776655</v>
       </c>
       <c r="F15" s="96"/>
     </row>
@@ -3894,7 +3903,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.25"/>
-    <col customWidth="1" min="2" max="2" width="5.5"/>
+    <col customWidth="1" min="2" max="2" width="11.0"/>
     <col customWidth="1" min="3" max="3" width="11.25"/>
     <col customWidth="1" min="4" max="4" width="123.13"/>
   </cols>
@@ -3926,22 +3935,46 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="101">
+        <v>45107.0</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="104">
+        <v>2022.0</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="102"/>
+      <c r="A4" s="101">
+        <v>45107.0</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="105">
+        <v>2022.0</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="107"/>
+      <c r="A5" s="101">
+        <v>45107.0</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="104">
+        <v>2022.0</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="164">
   <si>
     <t>Data source</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>17 min. of regulation ‘LPAU23’ (23/12/2022) reallocated from ENAIRE to DSNA</t>
+  </si>
+  <si>
+    <t>7878 min. of regulation 'LEROCK04' reallocated from ENAIRE to 'OTHER'</t>
+  </si>
+  <si>
+    <t>488 min. of regulation 'SAN04M' reallocated from ENAIRE to 'OTHER'</t>
+  </si>
+  <si>
+    <t>1423 min. of regulation 'SUR04M' reallocated from ENAIRE to 'OTHER'</t>
   </si>
 </sst>
 </file>
@@ -844,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1161,6 +1170,18 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45110.0</v>
+        <v>45117.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1518,20 +1539,20 @@
       </c>
       <c r="C13" s="32">
         <f t="shared" si="1"/>
-        <v>1.741019998</v>
+        <v>1.739840968</v>
       </c>
       <c r="D13" s="39">
         <v>8302587.0</v>
       </c>
       <c r="E13" s="40">
-        <v>1.445497E7</v>
+        <v>1.4445181E7</v>
       </c>
       <c r="F13" s="43">
         <v>0.5</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="2"/>
-        <v>1.241019998</v>
+        <v>1.239840968</v>
       </c>
       <c r="H13" s="37">
         <v>0.0404</v>
@@ -1624,7 +1645,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2668,17 +2689,17 @@
       </c>
       <c r="B52" s="69">
         <f t="shared" si="1"/>
-        <v>0.4834897243</v>
+        <v>0.4676089058</v>
       </c>
       <c r="C52" s="71">
         <v>616404.0</v>
       </c>
       <c r="D52" s="71">
-        <v>298025.0</v>
+        <v>288236.0</v>
       </c>
       <c r="E52" s="69">
         <f t="shared" si="4"/>
-        <v>1.82614282</v>
+        <v>1.824869156</v>
       </c>
       <c r="F52" s="78">
         <v>1.0</v>
@@ -2700,7 +2721,7 @@
       </c>
       <c r="E53" s="69">
         <f t="shared" si="4"/>
-        <v>1.741019998</v>
+        <v>1.739840968</v>
       </c>
       <c r="F53" s="78">
         <v>1.0</v>
@@ -2999,7 +3020,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3210,11 +3231,11 @@
         <v>2047921.0</v>
       </c>
       <c r="D14" s="97">
-        <v>1002313.0</v>
+        <v>992524.0</v>
       </c>
       <c r="E14" s="96">
         <f t="shared" si="1"/>
-        <v>0.4894295239</v>
+        <v>0.4846495544</v>
       </c>
       <c r="F14" s="96"/>
     </row>
@@ -3284,7 +3305,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3529,11 +3550,11 @@
         <v>1982636.0</v>
       </c>
       <c r="D15" s="97">
-        <v>598117.0</v>
+        <v>588328.0</v>
       </c>
       <c r="E15" s="99">
         <f t="shared" si="1"/>
-        <v>0.3016776655</v>
+        <v>0.2967402993</v>
       </c>
       <c r="F15" s="96"/>
     </row>
@@ -3976,6 +3997,48 @@
         <v>160</v>
       </c>
     </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="107">
+        <v>45117.0</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="110">
+        <v>45117.0</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="110">
+        <v>45117.0</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="164">
   <si>
     <t>Data source</t>
   </si>
@@ -486,6 +486,27 @@
   </si>
   <si>
     <t>UK removed from SES area</t>
+  </si>
+  <si>
+    <t>ENAIRE,DSNA</t>
+  </si>
+  <si>
+    <t>55 min.  of regulation 'T21316E'  (16/09/2022) reallocated from ENAIRE to DSNA</t>
+  </si>
+  <si>
+    <t>274 min.  of regulation ‘PAU23M’ (23/12/2022) reallocated from ENAIRE to DSNA</t>
+  </si>
+  <si>
+    <t>17 min. of regulation ‘LPAU23’ (23/12/2022) reallocated from ENAIRE to DSNA</t>
+  </si>
+  <si>
+    <t>7878 min. of regulation 'LEROCK04' reallocated from ENAIRE to 'OTHER'</t>
+  </si>
+  <si>
+    <t>488 min. of regulation 'SAN04M' reallocated from ENAIRE to 'OTHER'</t>
+  </si>
+  <si>
+    <t>1423 min. of regulation 'SUR04M' reallocated from ENAIRE to 'OTHER'</t>
   </si>
 </sst>
 </file>
@@ -832,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1141,17 +1162,26 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45072.0</v>
+        <v>45117.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1509,20 +1539,20 @@
       </c>
       <c r="C13" s="32">
         <f t="shared" si="1"/>
-        <v>1.741019998</v>
+        <v>1.739840968</v>
       </c>
       <c r="D13" s="39">
         <v>8302587.0</v>
       </c>
       <c r="E13" s="40">
-        <v>1.445497E7</v>
+        <v>1.4445181E7</v>
       </c>
       <c r="F13" s="43">
         <v>0.5</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="2"/>
-        <v>1.241019998</v>
+        <v>1.239840968</v>
       </c>
       <c r="H13" s="37">
         <v>0.0404</v>
@@ -1615,7 +1645,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45072</v>
+        <v>45117</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2659,17 +2689,17 @@
       </c>
       <c r="B52" s="69">
         <f t="shared" si="1"/>
-        <v>0.4834897243</v>
+        <v>0.4676089058</v>
       </c>
       <c r="C52" s="71">
         <v>616404.0</v>
       </c>
       <c r="D52" s="71">
-        <v>298025.0</v>
+        <v>288236.0</v>
       </c>
       <c r="E52" s="69">
         <f t="shared" si="4"/>
-        <v>1.82614282</v>
+        <v>1.824869156</v>
       </c>
       <c r="F52" s="78">
         <v>1.0</v>
@@ -2691,7 +2721,7 @@
       </c>
       <c r="E53" s="69">
         <f t="shared" si="4"/>
-        <v>1.741019998</v>
+        <v>1.739840968</v>
       </c>
       <c r="F53" s="78">
         <v>1.0</v>
@@ -2990,7 +3020,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45072</v>
+        <v>45117</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3167,11 +3197,11 @@
         <v>5232079.0</v>
       </c>
       <c r="D12" s="97">
-        <v>1.0466578E7</v>
+        <v>1.0466924E7</v>
       </c>
       <c r="E12" s="96">
         <f t="shared" si="1"/>
-        <v>2.000462531</v>
+        <v>2.000528662</v>
       </c>
       <c r="F12" s="96"/>
     </row>
@@ -3201,11 +3231,11 @@
         <v>2047921.0</v>
       </c>
       <c r="D14" s="97">
-        <v>1002659.0</v>
+        <v>992524.0</v>
       </c>
       <c r="E14" s="96">
         <f t="shared" si="1"/>
-        <v>0.4895984757</v>
+        <v>0.4846495544</v>
       </c>
       <c r="F14" s="96"/>
     </row>
@@ -3275,7 +3305,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45072</v>
+        <v>45117</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3482,11 +3512,11 @@
         <v>2919041.0</v>
       </c>
       <c r="D13" s="97">
-        <v>4342492.0</v>
+        <v>4342838.0</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>1.487643373</v>
+        <v>1.487761905</v>
       </c>
       <c r="F13" s="96"/>
     </row>
@@ -3520,11 +3550,11 @@
         <v>1982636.0</v>
       </c>
       <c r="D15" s="97">
-        <v>598463.0</v>
+        <v>588328.0</v>
       </c>
       <c r="E15" s="99">
         <f t="shared" si="1"/>
-        <v>0.3018521806</v>
+        <v>0.2967402993</v>
       </c>
       <c r="F15" s="96"/>
     </row>
@@ -3894,7 +3924,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.25"/>
-    <col customWidth="1" min="2" max="2" width="5.5"/>
+    <col customWidth="1" min="2" max="2" width="11.0"/>
     <col customWidth="1" min="3" max="3" width="11.25"/>
     <col customWidth="1" min="4" max="4" width="123.13"/>
   </cols>
@@ -3926,22 +3956,88 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="101">
+        <v>45107.0</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="104">
+        <v>2022.0</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="102"/>
+      <c r="A4" s="101">
+        <v>45107.0</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="105">
+        <v>2022.0</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="107"/>
+      <c r="A5" s="101">
+        <v>45107.0</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="104">
+        <v>2022.0</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="107">
+        <v>45117.0</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="110">
+        <v>45117.0</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="110">
+        <v>45117.0</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_ATFM_2022_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
   <si>
     <t>Data source</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>1423 min. of regulation 'SUR04M' reallocated from ENAIRE to 'OTHER'</t>
+  </si>
+  <si>
+    <t>DFS, PANSA, ANS CR</t>
+  </si>
+  <si>
+    <t>Corrections related to impact of war in Ukraine</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45117.0</v>
+        <v>45174.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1539,20 +1545,20 @@
       </c>
       <c r="C13" s="32">
         <f t="shared" si="1"/>
-        <v>1.739840968</v>
+        <v>1.694278301</v>
       </c>
       <c r="D13" s="39">
         <v>8302587.0</v>
       </c>
       <c r="E13" s="40">
-        <v>1.4445181E7</v>
+        <v>1.4066893E7</v>
       </c>
       <c r="F13" s="43">
         <v>0.5</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="2"/>
-        <v>1.239840968</v>
+        <v>1.194278301</v>
       </c>
       <c r="H13" s="37">
         <v>0.0404</v>
@@ -1645,7 +1651,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45117</v>
+        <v>45174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -2491,17 +2497,17 @@
       </c>
       <c r="B43" s="69">
         <f t="shared" si="1"/>
-        <v>0.1812200377</v>
+        <v>0.1778860358</v>
       </c>
       <c r="C43" s="71">
         <v>463707.0</v>
       </c>
       <c r="D43" s="71">
-        <v>84033.0</v>
+        <v>82487.0</v>
       </c>
       <c r="E43" s="69">
         <f t="shared" ref="E43:E53" si="4">sum(D$42:D43)/sum(C$42:C43)</f>
-        <v>0.1734592134</v>
+        <v>0.1718175766</v>
       </c>
       <c r="F43" s="78">
         <v>1.0</v>
@@ -2513,17 +2519,17 @@
       </c>
       <c r="B44" s="69">
         <f t="shared" si="1"/>
-        <v>0.3255284979</v>
+        <v>0.2777396765</v>
       </c>
       <c r="C44" s="71">
         <v>580324.0</v>
       </c>
       <c r="D44" s="71">
-        <v>188912.0</v>
+        <v>161179.0</v>
       </c>
       <c r="E44" s="69">
         <f t="shared" si="4"/>
-        <v>0.2314392205</v>
+        <v>0.2122028794</v>
       </c>
       <c r="F44" s="78">
         <v>1.0</v>
@@ -2535,17 +2541,17 @@
       </c>
       <c r="B45" s="69">
         <f t="shared" si="1"/>
-        <v>1.396478328</v>
+        <v>1.136851254</v>
       </c>
       <c r="C45" s="71">
         <v>675361.0</v>
       </c>
       <c r="D45" s="71">
-        <v>943127.0</v>
+        <v>767785.0</v>
       </c>
       <c r="E45" s="69">
         <f t="shared" si="4"/>
-        <v>0.589504184</v>
+        <v>0.4963857746</v>
       </c>
       <c r="F45" s="78">
         <v>1.0</v>
@@ -2557,17 +2563,17 @@
       </c>
       <c r="B46" s="69">
         <f t="shared" si="1"/>
-        <v>2.074151273</v>
+        <v>1.848473429</v>
       </c>
       <c r="C46" s="71">
         <v>769535.0</v>
       </c>
       <c r="D46" s="71">
-        <v>1596132.0</v>
+        <v>1422465.0</v>
       </c>
       <c r="E46" s="69">
         <f t="shared" si="4"/>
-        <v>0.9745740004</v>
+        <v>0.8470739271</v>
       </c>
       <c r="F46" s="78">
         <v>1.0</v>
@@ -2589,7 +2595,7 @@
       </c>
       <c r="E47" s="69">
         <f t="shared" si="4"/>
-        <v>1.53673133</v>
+        <v>1.436502515</v>
       </c>
       <c r="F47" s="78">
         <v>1.0</v>
@@ -2611,7 +2617,7 @@
       </c>
       <c r="E48" s="69">
         <f t="shared" si="4"/>
-        <v>1.859164684</v>
+        <v>1.777472975</v>
       </c>
       <c r="F48" s="78">
         <v>1.0</v>
@@ -2633,7 +2639,7 @@
       </c>
       <c r="E49" s="69">
         <f t="shared" si="4"/>
-        <v>1.964167791</v>
+        <v>1.895189648</v>
       </c>
       <c r="F49" s="78">
         <v>1.0</v>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="E50" s="69">
         <f t="shared" si="4"/>
-        <v>2.032147185</v>
+        <v>1.972057777</v>
       </c>
       <c r="F50" s="78">
         <v>1.0</v>
@@ -2677,7 +2683,7 @@
       </c>
       <c r="E51" s="69">
         <f t="shared" si="4"/>
-        <v>1.943214753</v>
+        <v>1.889703381</v>
       </c>
       <c r="F51" s="78">
         <v>1.0</v>
@@ -2699,7 +2705,7 @@
       </c>
       <c r="E52" s="69">
         <f t="shared" si="4"/>
-        <v>1.824869156</v>
+        <v>1.775649469</v>
       </c>
       <c r="F52" s="78">
         <v>1.0</v>
@@ -2721,7 +2727,7 @@
       </c>
       <c r="E53" s="69">
         <f t="shared" si="4"/>
-        <v>1.739840968</v>
+        <v>1.694278301</v>
       </c>
       <c r="F53" s="78">
         <v>1.0</v>
@@ -3020,7 +3026,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45117</v>
+        <v>45174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3092,15 +3098,15 @@
         <v>8302587.0</v>
       </c>
       <c r="D6" s="97">
-        <v>1.445497E7</v>
+        <v>1.4066893E7</v>
       </c>
       <c r="E6" s="96">
         <f t="shared" ref="E6:E15" si="1">D6/C6</f>
-        <v>1.741019998</v>
+        <v>1.694278301</v>
       </c>
       <c r="F6" s="96">
         <f>E6-B6</f>
-        <v>1.241019998</v>
+        <v>1.194278301</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3112,11 +3118,11 @@
         <v>662296.0</v>
       </c>
       <c r="D7" s="97">
-        <v>799668.0</v>
+        <v>668941.0</v>
       </c>
       <c r="E7" s="96">
         <f t="shared" si="1"/>
-        <v>1.207417831</v>
+        <v>1.010033278</v>
       </c>
       <c r="F7" s="96"/>
     </row>
@@ -3180,11 +3186,11 @@
         <v>1943729.0</v>
       </c>
       <c r="D11" s="97">
-        <v>1767150.0</v>
+        <v>1698768.0</v>
       </c>
       <c r="E11" s="96">
         <f t="shared" si="1"/>
-        <v>0.9091545169</v>
+        <v>0.8739736867</v>
       </c>
       <c r="F11" s="96"/>
     </row>
@@ -3197,11 +3203,11 @@
         <v>5232079.0</v>
       </c>
       <c r="D12" s="97">
-        <v>1.0466924E7</v>
+        <v>1.0287745E7</v>
       </c>
       <c r="E12" s="96">
         <f t="shared" si="1"/>
-        <v>2.000528662</v>
+        <v>1.966282428</v>
       </c>
       <c r="F12" s="96"/>
     </row>
@@ -3305,7 +3311,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45117</v>
+        <v>45174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3377,11 +3383,11 @@
         <v>550194.0</v>
       </c>
       <c r="D6" s="97">
-        <v>798202.0</v>
+        <v>729820.0</v>
       </c>
       <c r="E6" s="99">
         <f t="shared" ref="E6:E33" si="1">D6/C6</f>
-        <v>1.450764639</v>
+        <v>1.32647757</v>
       </c>
       <c r="F6" s="96" t="s">
         <v>4</v>
@@ -3493,11 +3499,11 @@
         <v>2516506.0</v>
       </c>
       <c r="D12" s="97">
-        <v>5705935.0</v>
+        <v>5526756.0</v>
       </c>
       <c r="E12" s="99">
         <f t="shared" si="1"/>
-        <v>2.267403694</v>
+        <v>2.196202195</v>
       </c>
       <c r="F12" s="96"/>
     </row>
@@ -3797,11 +3803,11 @@
         <v>613073.0</v>
       </c>
       <c r="D28" s="97">
-        <v>799668.0</v>
+        <v>668941.0</v>
       </c>
       <c r="E28" s="99">
         <f t="shared" si="1"/>
-        <v>1.304360166</v>
+        <v>1.09112781</v>
       </c>
       <c r="F28" s="96"/>
     </row>
@@ -4039,6 +4045,20 @@
         <v>163</v>
       </c>
     </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="110">
+        <v>45174.0</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="109">
+        <v>2022.0</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
